--- a/DOM_Banner/output/dept_banner/Alejandro RecioBoiles_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Alejandro RecioBoiles_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Washington and Fred Hutchinson Cancer Research Center, Seattle, WA;; Department of Medical Oncology &amp; Clinical Research Unit, Institut Claudius Regaud/Institut Universitaire du Cancer de Toulouse (IUCT-Oncopôle), Toulouse, France;; Norton Cancer Institute, Louisville, KY;; Institut de Cancérologie Strasbourg Europe, Strasbourg, France;; Rocky Mountain Cancer Centers, Littleton, CO;; Yale Cancer Center, New Haven, CT;; Huntsman Cancer Institute, University of Utah, Salt Lake City, UT;; Centre Léon Bérard, Lyon, France;; University of Texas Health Science Center at San Antonio, San Antonio, TX;; Vanderbilt-Ingram Cancer Center, Nashville, TN;; University of Arizona Cancer Center, Tucson, AZ;; Weill Cornell Medicine, New York, NY;; Englander Institute for Precision Medicine, Weill Cornell Medicine, Hematology/Oncology, New York, NY;; Gilead Sciences, Inc, Morris Plains, NJ;; Gilead Sciences, Inc, Morris Plains, NJ;; Gilead Sciences, Inc, Morris Plains, NJ;; Institut Gustave Roussy, Université Paris-Saclay, Villejuif, France;</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213157296</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>TROPHY-U-01 Cohort 3: Sacituzumab govitecan (SG) in combination with pembrolizumab (Pembro) in patients (pts) with metastatic urothelial cancer (mUC) who progressed after platinum (PLT)-based regimens.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-02-20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.434</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.434</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Hematology-Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Az, USA.; Division of Hematology-Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Az, USA.; Division of Hematology-Oncology, Department of Medicine, Mayo Clinic Cancer Center, Jacksonville, FL, USA.; Department of Medicine, Mayo Clinic, Jacksonville, FL, USA.; Department of Medicine, Michigan State University, MI, USA; Division of Hematology and Oncology, Department of Medicine, University of Texas, San Antonio, Texas, USA.; Division of Hematology-Oncology, Department of Medicine, Mayo Clinic Cancer Center, Jacksonville, FL, USA.; Division of Hematology-Oncology, Department of Medicine, Mayo Clinic Cancer Center, Jacksonville, FL, USA.; Division of Hematology-Oncology, Department of Medicine, Mayo Clinic Cancer Center, Phoenix, AZ, USA.; Division of Hematology-Oncology, Department of Medicine, Mayo Clinic Cancer Center, Jacksonville, FL, USA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309244755</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Pharmacotherapeutic options for pancreatic ductal adenocarcinoma</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Expert Opinion on Pharmacotherapy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/14656566.2022.2149322</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36394449</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/14656566.2022.2149322</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>The University of Arizona Cancer Center, Tucson, AZ;; Center for Health Outcomes and Pharmacoeconomic Research, and Department of Pharmacy Practice and Science, Tucson, AZ;; University of Arizona College of Pharmacy, Tucson, AZ;; University of Arizona College of Pharmacy, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213290383</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Network meta-analysis (NMA) of second-line (2L) treatment options in metastatic renal cell carcinoma.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-02-20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.337</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.337</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>The University of Arizona Cancer Center, Tucson, AZ;; The University of Arizona Cancer Center, Tuscon, AZ;; The University of Arizona Cancer Center, Tucson, AZ;; The University of Arizona Cancer Center, Tucson, AZ;; The University of Arizona Cancer Center, Tucson, AZ;</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213094212</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Disparities in prostate cancer: An ethnicity comparative focus among Hispanic Americans versus non-Hispanic whites.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-02-20</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.023</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2022.40.6_suppl.023</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Internal Medicine Residency Program, Canada; University of Arizona 1501 N. Campbell Ave. Tucson, AZ, 85724, USA; Internal Medicine Residency Program, Canada; University of Arizona 1501 N. Campbell Ave. Tucson, AZ, 85724, USA; Internal Medicine Residency Program – South Campus, Canada; University of Arizona, 2800 E. Ajo Way Tucson, AZ, 85724, USA; University of Arizona Cancer Center, 3838 N. Campbell Ave Tucson, AZ, 85719, USA; University of Arizona Cancer Center, 3838 N. Campbell Ave Tucson, AZ, 85719, USA; University of Arizona Cancer Center, 3838 N. Campbell Ave Tucson, AZ, 85719, USA; University of Arizona Cancer Center, 3838 N. Campbell Ave Tucson, AZ, 85719, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293394045</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Retrospective real-world meta-analysis of high-risk major bleeding as a primary safety outcome in cancer patients receiving therapeutic anticoagulation</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Thrombosis Update</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.tru.2022.100121</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.tru.2022.100121</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of California Los Angeles, Los Angeles, CA, USA; Mayo Clinic College of Medicine and Sci, Rochester, MN, USA; OU Health Stephenson Cancer Center, OKC, OK, USA; Carolina BioOncology Institute, Huntersville, NC, USA; University of Miami, Miami, FL, USA; Mayo Clinic Comprehensive Cancer Center, Phoenix, AZ, USA; Icahn School of Medicine at Mount Sinai, New York, NY, USA; The University of Arizona Cancer Center, Tucson, AZ, USA; Vanderbilt University Medical Center, nashville, TN, USA; City of Hope Comprehensive Cancer Center, Duarte, CA, USA; ; ; Massachusetts General Hospital, Boston, MA, USA; Georgetown University Medical Center, Washington, DC, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308399046</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>717 Interim clinical update of the phase 1b trial of ATRC-101 as monotherapy or in combination with pembrolizumab for select advanced solid tumors</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Regular and Young Investigator Award Abstracts</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1136/jitc-2022-sitc2022.0717</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/jitc-2022-sitc2022.0717</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
